--- a/Unity/Assets/Config/Excel/PetZhuangJiaConfig.xlsx
+++ b/Unity/Assets/Config/Excel/PetZhuangJiaConfig.xlsx
@@ -77,118 +77,118 @@
     <t>3;301</t>
   </si>
   <si>
-    <t>130103;10@130102;0.01</t>
+    <t>130103;10@231103;0.01</t>
   </si>
   <si>
     <t>3;302</t>
   </si>
   <si>
-    <t>130103;10@130102;0.02</t>
+    <t>130103;10@231103;0.02</t>
   </si>
   <si>
     <t>3;303</t>
   </si>
   <si>
-    <t>130103;10@130102;0.03</t>
+    <t>130103;10@231103;0.03</t>
   </si>
   <si>
     <t>3;304</t>
   </si>
   <si>
-    <t>130103;10@130102;0.04</t>
+    <t>130103;10@231103;0.04</t>
   </si>
   <si>
     <t>3;305</t>
   </si>
   <si>
-    <t>130103;10@130102;0.05</t>
+    <t>130103;10@231103;0.05</t>
   </si>
   <si>
     <t>3;306</t>
   </si>
   <si>
-    <t>130103;10@130102;0.06</t>
+    <t>130103;10@231103;0.06</t>
   </si>
   <si>
     <t>3;307</t>
   </si>
   <si>
-    <t>130103;10@130102;0.07</t>
+    <t>130103;10@231103;0.07</t>
   </si>
   <si>
     <t>3;308</t>
   </si>
   <si>
-    <t>130103;10@130102;0.08</t>
+    <t>130103;10@231103;0.08</t>
   </si>
   <si>
     <t>3;309</t>
   </si>
   <si>
-    <t>130103;10@130102;0.09</t>
+    <t>130103;10@231103;0.09</t>
   </si>
   <si>
     <t>3;310</t>
   </si>
   <si>
-    <t>130103;10@130102;0.10</t>
+    <t>130103;10@231103;0.10</t>
   </si>
   <si>
     <t>3;311</t>
   </si>
   <si>
-    <t>130103;10@130102;0.11</t>
+    <t>130103;10@231103;0.11</t>
   </si>
   <si>
     <t>3;312</t>
   </si>
   <si>
-    <t>130103;10@130102;0.12</t>
+    <t>130103;10@231103;0.12</t>
   </si>
   <si>
     <t>3;313</t>
   </si>
   <si>
-    <t>130103;10@130102;0.13</t>
+    <t>130103;10@231103;0.13</t>
   </si>
   <si>
     <t>3;314</t>
   </si>
   <si>
-    <t>130103;10@130102;0.14</t>
+    <t>130103;10@231103;0.14</t>
   </si>
   <si>
     <t>3;315</t>
   </si>
   <si>
-    <t>130103;10@130102;0.15</t>
+    <t>130103;10@231103;0.15</t>
   </si>
   <si>
     <t>3;316</t>
   </si>
   <si>
-    <t>130103;10@130102;0.16</t>
+    <t>130103;10@231103;0.16</t>
   </si>
   <si>
     <t>3;317</t>
   </si>
   <si>
-    <t>130103;10@130102;0.17</t>
+    <t>130103;10@231103;0.17</t>
   </si>
   <si>
     <t>3;318</t>
   </si>
   <si>
-    <t>130103;10@130102;0.18</t>
+    <t>130103;10@231103;0.18</t>
   </si>
   <si>
     <t>3;319</t>
   </si>
   <si>
-    <t>130103;10@130102;0.19</t>
+    <t>130103;10@231103;0.19</t>
   </si>
   <si>
-    <t>130103;10@130102;0.20</t>
+    <t>130103;10@231103;0.20</t>
   </si>
   <si>
     <t>智慧之源</t>
